--- a/Output/PBL/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/PBL/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -124,15 +126,47 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -168,10 +202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1797,4 +1833,1285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>15876584</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>19890712</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>76550988</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>29167006</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>138051935.4915</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>11943168.4044</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="n">
+        <v>1639344.09</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>53108476.55</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>149452417.8948</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>87329908.6941</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>-557158.6016</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="n">
+        <v>926192</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>243720226.01</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>280103775</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>290415194</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>238113452</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>-10767551</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="n">
+        <v>46695977</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>27723934.3799</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>36006827</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>72464569.5</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>70264272.58</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>59815642.9072</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>93786476.1304</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>55780149.5308</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>56350680.6754</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>57860445.0318</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>53147822.6447</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>47385010.1957</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>52743729.7032</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>60621963.6526</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>517872.9683</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>1532441.74</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f>Sum(N2:N3)</f>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f>Sum(O2:O3)</f>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f>Sum(P2:P3)</f>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <f>Sum(Q2:Q3)</f>
+      </c>
+      <c r="R4" s="3" t="str">
+        <f>Sum(R2:R3)</f>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f>Sum(S2:S3)</f>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f>Sum(T2:T3)</f>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f>Sum(U2:U3)</f>
+      </c>
+      <c r="V4" s="3" t="str">
+        <f>Sum(V2:V3)</f>
+      </c>
+      <c r="W4" s="3" t="str">
+        <f>Sum(W2:W3)</f>
+      </c>
+      <c r="X4" s="3" t="str">
+        <f>Sum(X2:X3)</f>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <f>Sum(Y2:Y3)</f>
+      </c>
+      <c r="Z4" s="3" t="str">
+        <f>Sum(Z2:Z3)</f>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <f>Sum(AA2:AA3)</f>
+      </c>
+      <c r="AB4" s="3" t="str">
+        <f>Sum(AB2:AB3)</f>
+      </c>
+      <c r="AC4" s="3" t="str">
+        <f>Sum(AC2:AC3)</f>
+      </c>
+      <c r="AD4" s="3" t="str">
+        <f>Sum(AD2:AD3)</f>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f>Sum(AE2:AE3)</f>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <f>Sum(AF2:AF3)</f>
+      </c>
+      <c r="AG4" s="3" t="str">
+        <f>Sum(AG2:AG3)</f>
+      </c>
+      <c r="AH4" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>23096825.2664038</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>28161206.3839161</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>106176333.386865</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>40045174.0004465</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>187912575.370994</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>15936844.8628995</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="n">
+        <v>2110247.10532389</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>67139102.4501109</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>186999350.677689</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>108403111.234983</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>-680123.505103772</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="n">
+        <v>1085969.23913619</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>282079529.578354</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>313403004.713106</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>303700700.180051</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>238113452</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>-10487472.6804457</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="n">
+        <v>64111774.9310933</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>37737072.5748659</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>48047151.0133655</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>94972621.8837725</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>90447745.9760348</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>75618222.1398281</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>117348453.680277</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>69240216.1494509</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>68787275.9136748</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>69096307.206239</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>62316345.3357511</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>54842971.4016436</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>59013997.111459</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>63395212.0548631</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>517872.9683</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>1492580.89259337</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="n">
+        <v>37227644.5</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>48921611.06</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>59815642.9072</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>94515589.9904</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>55780149.5308</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>56350680.6754</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>58856611.6841</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>58588871.395</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>48915813.6957</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>56098869.9004</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>60621963.6526</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>692183.9527</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>2988821.74</v>
+      </c>
+      <c r="AH2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4" t="n">
+        <v>1014577.5</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>243720226.01</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>280103775</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>290415194</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>238113452</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>-10767551</v>
+      </c>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>15876584</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>19890712</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>76550988</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>29167006</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>138051935.4915</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>11943168.4044</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="n">
+        <v>1639344.09</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>53108476.55</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>149452417.8948</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>87329908.6941</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>-557158.6016</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="n">
+        <v>46695977</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>27723934.3799</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>36016979</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>35236925</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>22538968</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="n">
+        <v>-10152</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="n">
+        <v>-1196306.48</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4" t="n">
+        <v>-729113.86</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>-996166.6523</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>-5529434.2503</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>-1530803.5</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>-3355140.1972</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>-174310.9844</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>-1456380</v>
+      </c>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="4" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="4" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="4" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="4" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="4" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="4" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="4" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="4" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="4" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="4" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="4" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="4" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4" t="n">
+        <v>48790837.0824173</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>62974386.3761673</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>75618222.1398281</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>118260742.824278</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>69240216.1494509</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>68787275.9136748</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>70285918.4682696</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>68696028.5671612</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>56614709.1774784</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>62768002.2798514</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>63395212.0548631</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>692183.9527</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>2911078.51218649</v>
+      </c>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4" t="n">
+        <v>1189602.10811548</v>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v>282079529.578354</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>313403004.713106</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>303700700.180051</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>238113452</v>
+      </c>
+      <c r="AG12" s="4" t="n">
+        <v>-10487472.6804457</v>
+      </c>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>23096825.2664038</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <v>28161206.3839161</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>106176333.386865</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>40045174.0004465</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>187912575.370994</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>15936844.8628995</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="n">
+        <v>2110247.10532389</v>
+      </c>
+      <c r="W13" s="4" t="n">
+        <v>67139102.4501109</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>186999350.677689</v>
+      </c>
+      <c r="Y13" s="4" t="n">
+        <v>108403111.234983</v>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>-680123.505103772</v>
+      </c>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="n">
+        <v>64111774.9310933</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>37737072.5748659</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>48060697.7409649</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>46181784.8013553</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>29013306.1564811</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4" t="n">
+        <v>-13546.7275993991</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4" t="n">
+        <v>-1539946.55661351</v>
+      </c>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4" t="n">
+        <v>-912289.144000841</v>
+      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>-1189611.26203059</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>-6483316.10038942</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>-1771737.77583474</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>-3754005.16839233</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>-174310.9844</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>-1418497.61959312</v>
+      </c>
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/PBL/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -162,11 +162,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -202,12 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2420,52 +2422,52 @@
       <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="n">
         <v>37227644.5</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>48921611.06</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>59815642.9072</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>94515589.9904</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>55780149.5308</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>56350680.6754</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>58856611.6841</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>58588871.395</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>48915813.6957</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>56098869.9004</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>60621963.6526</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>692183.9527</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>2988821.74</v>
       </c>
-      <c r="AH2" s="4"/>
+      <c r="AH2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2480,38 +2482,38 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5" t="n">
         <v>1014577.5</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>243720226.01</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="5" t="n">
         <v>280103775</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>290415194</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>238113452</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="5" t="n">
         <v>-10767551</v>
       </c>
-      <c r="AH3" s="4"/>
+      <c r="AH3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2526,48 +2528,48 @@
       <c r="N4" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="5" t="n">
         <v>15876584</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="5" t="n">
         <v>19890712</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="5" t="n">
         <v>76550988</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="5" t="n">
         <v>29167006</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="5" t="n">
         <v>138051935.4915</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="5" t="n">
         <v>11943168.4044</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4" t="n">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="n">
         <v>1639344.09</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="5" t="n">
         <v>53108476.55</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="5" t="n">
         <v>149452417.8948</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="5" t="n">
         <v>87329908.6941</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="5" t="n">
         <v>-557158.6016</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2582,40 +2584,40 @@
       <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="n">
         <v>46695977</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="5" t="n">
         <v>27723934.3799</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="5" t="n">
         <v>36016979</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="5" t="n">
         <v>35236925</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="5" t="n">
         <v>22538968</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2630,48 +2632,48 @@
       <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="n">
         <v>-10152</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4" t="n">
+      <c r="U6" s="5"/>
+      <c r="V6" s="5" t="n">
         <v>-1196306.48</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4" t="n">
+      <c r="W6" s="5"/>
+      <c r="X6" s="5" t="n">
         <v>-729113.86</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="5" t="n">
         <v>-996166.6523</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="5" t="n">
         <v>-5529434.2503</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="5" t="n">
         <v>-1530803.5</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="5" t="n">
         <v>-3355140.1972</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="5" t="n">
         <v>-174310.9844</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="5" t="n">
         <v>-1456380</v>
       </c>
-      <c r="AH6" s="4"/>
+      <c r="AH6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2686,64 +2688,64 @@
       <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="O7" s="5" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="P7" s="5" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="Q7" s="5" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="R7" s="5" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="S7" s="5" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="4" t="str">
+      <c r="T7" s="5" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="4" t="str">
+      <c r="U7" s="5" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="5" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="4" t="str">
+      <c r="W7" s="5" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="4" t="str">
+      <c r="X7" s="5" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="4" t="str">
+      <c r="Y7" s="5" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="4" t="str">
+      <c r="Z7" s="5" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="4" t="str">
+      <c r="AA7" s="5" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="4" t="str">
+      <c r="AB7" s="5" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="4" t="str">
+      <c r="AC7" s="5" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="4" t="str">
+      <c r="AD7" s="5" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="4" t="str">
+      <c r="AE7" s="5" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="4" t="str">
+      <c r="AF7" s="5" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="4" t="str">
+      <c r="AG7" s="5" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="4"/>
+      <c r="AH7" s="5"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2829,52 +2831,52 @@
       <c r="N11" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4" t="n">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="n">
         <v>48790837.0824173</v>
       </c>
-      <c r="V11" s="4" t="n">
+      <c r="V11" s="5" t="n">
         <v>62974386.3761673</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="5" t="n">
         <v>75618222.1398281</v>
       </c>
-      <c r="X11" s="4" t="n">
+      <c r="X11" s="5" t="n">
         <v>118260742.824278</v>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>69240216.1494509</v>
       </c>
-      <c r="Z11" s="4" t="n">
+      <c r="Z11" s="5" t="n">
         <v>68787275.9136748</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <v>70285918.4682696</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="5" t="n">
         <v>68696028.5671612</v>
       </c>
-      <c r="AC11" s="4" t="n">
+      <c r="AC11" s="5" t="n">
         <v>56614709.1774784</v>
       </c>
-      <c r="AD11" s="4" t="n">
+      <c r="AD11" s="5" t="n">
         <v>62768002.2798514</v>
       </c>
-      <c r="AE11" s="4" t="n">
+      <c r="AE11" s="5" t="n">
         <v>63395212.0548631</v>
       </c>
-      <c r="AF11" s="4" t="n">
+      <c r="AF11" s="5" t="n">
         <v>692183.9527</v>
       </c>
-      <c r="AG11" s="4" t="n">
+      <c r="AG11" s="5" t="n">
         <v>2911078.51218649</v>
       </c>
-      <c r="AH11" s="4"/>
+      <c r="AH11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2889,38 +2891,38 @@
       <c r="N12" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4" t="n">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5" t="n">
         <v>1189602.10811548</v>
       </c>
-      <c r="AC12" s="4" t="n">
+      <c r="AC12" s="5" t="n">
         <v>282079529.578354</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="5" t="n">
         <v>313403004.713106</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="5" t="n">
         <v>303700700.180051</v>
       </c>
-      <c r="AF12" s="4" t="n">
+      <c r="AF12" s="5" t="n">
         <v>238113452</v>
       </c>
-      <c r="AG12" s="4" t="n">
+      <c r="AG12" s="5" t="n">
         <v>-10487472.6804457</v>
       </c>
-      <c r="AH12" s="4"/>
+      <c r="AH12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2935,48 +2937,48 @@
       <c r="N13" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="O13" s="5" t="n">
         <v>23096825.2664038</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="5" t="n">
         <v>28161206.3839161</v>
       </c>
-      <c r="Q13" s="4" t="n">
+      <c r="Q13" s="5" t="n">
         <v>106176333.386865</v>
       </c>
-      <c r="R13" s="4" t="n">
+      <c r="R13" s="5" t="n">
         <v>40045174.0004465</v>
       </c>
-      <c r="S13" s="4" t="n">
+      <c r="S13" s="5" t="n">
         <v>187912575.370994</v>
       </c>
-      <c r="T13" s="4" t="n">
+      <c r="T13" s="5" t="n">
         <v>15936844.8628995</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4" t="n">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="n">
         <v>2110247.10532389</v>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="W13" s="5" t="n">
         <v>67139102.4501109</v>
       </c>
-      <c r="X13" s="4" t="n">
+      <c r="X13" s="5" t="n">
         <v>186999350.677689</v>
       </c>
-      <c r="Y13" s="4" t="n">
+      <c r="Y13" s="5" t="n">
         <v>108403111.234983</v>
       </c>
-      <c r="Z13" s="4" t="n">
+      <c r="Z13" s="5" t="n">
         <v>-680123.505103772</v>
       </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2991,40 +2993,40 @@
       <c r="N14" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="n">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5" t="n">
         <v>64111774.9310933</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="5" t="n">
         <v>37737072.5748659</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="5" t="n">
         <v>48060697.7409649</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="5" t="n">
         <v>46181784.8013553</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="5" t="n">
         <v>29013306.1564811</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3039,48 +3041,48 @@
       <c r="N15" t="s">
         <v>45</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4" t="n">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5" t="n">
         <v>-13546.7275993991</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4" t="n">
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="n">
         <v>-1539946.55661351</v>
       </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4" t="n">
+      <c r="W15" s="5"/>
+      <c r="X15" s="5" t="n">
         <v>-912289.144000841</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="5" t="n">
         <v>-1189611.26203059</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="5" t="n">
         <v>-6483316.10038942</v>
       </c>
-      <c r="AC15" s="4" t="n">
+      <c r="AC15" s="5" t="n">
         <v>-1771737.77583474</v>
       </c>
-      <c r="AD15" s="4" t="n">
+      <c r="AD15" s="5" t="n">
         <v>-3754005.16839233</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="5" t="n">
         <v>-174310.9844</v>
       </c>
-      <c r="AG15" s="4" t="n">
+      <c r="AG15" s="5" t="n">
         <v>-1418497.61959312</v>
       </c>
-      <c r="AH15" s="4"/>
+      <c r="AH15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -3089,26 +3091,26 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
+++ b/Output/PBL/Platform/Land_Vehicles/DoD_Land_Vehicles_Contracts.xlsx
@@ -163,11 +163,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -205,11 +205,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
